--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\mycode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC6BCF4-0C25-488C-8349-6811E517ABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C571B2-7F11-4625-9E2A-4E09E2B7E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53595" yWindow="2955" windowWidth="22845" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,27 +337,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
